--- a/data/trans_dic/P25A$preocupacion-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 20,81</t>
+          <t>3,99; 20,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 21,86</t>
+          <t>6,38; 21,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 18,25</t>
+          <t>4,07; 18,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,01</t>
+          <t>0,0; 35,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 42,31</t>
+          <t>8,77; 40,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 16,87</t>
+          <t>1,8; 17,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 19,03</t>
+          <t>4,62; 18,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 25,27</t>
+          <t>9,3; 24,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 14,69</t>
+          <t>4,49; 14,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,09</t>
+          <t>1,85; 10,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,02</t>
+          <t>2,33; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 29,22</t>
+          <t>9,02; 29,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,34 +816,34 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 14,3</t>
+          <t>1,71; 13,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 27,13</t>
+          <t>3,3; 25,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,56</t>
+          <t>2,11; 8,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,01</t>
+          <t>2,26; 8,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 22,98</t>
+          <t>8,95; 23,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 20,24</t>
+          <t>2,97; 19,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 39,32</t>
+          <t>17,32; 40,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,27 +926,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,31</t>
+          <t>0,0; 24,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 45,55</t>
+          <t>13,51; 45,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 17,45</t>
+          <t>2,42; 16,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,46</t>
+          <t>0,8; 8,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 37,46</t>
+          <t>18,68; 37,04</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 15,43</t>
+          <t>2,63; 14,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 15,58</t>
+          <t>2,92; 16,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 18,46</t>
+          <t>4,35; 17,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 28,02</t>
+          <t>2,65; 27,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,71</t>
+          <t>1,93; 16,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 21,67</t>
+          <t>2,09; 22,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,4</t>
+          <t>4,89; 15,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 13,06</t>
+          <t>3,26; 13,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 15,75</t>
+          <t>5,0; 15,86</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1131,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 22,53</t>
+          <t>4,07; 22,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,96</t>
+          <t>0,0; 19,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,7 +1146,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,12</t>
+          <t>0,0; 23,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1160,19 +1161,19 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 18,35</t>
+          <t>4,23; 18,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,42</t>
+          <t>0,0; 8,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,78; 24,97</t>
+          <t>5,47; 23,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 13,09</t>
+          <t>2,4; 13,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 16,44</t>
+          <t>1,75; 16,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,95; 50,58</t>
+          <t>11,09; 50,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,62</t>
+          <t>0,0; 21,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,67</t>
+          <t>0,0; 33,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 27,4</t>
+          <t>9,65; 27,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 11,15</t>
+          <t>1,92; 11,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,27</t>
+          <t>2,7; 16,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 20,84</t>
+          <t>6,96; 20,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 15,24</t>
+          <t>4,42; 13,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 22,38</t>
+          <t>9,09; 22,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,15</t>
+          <t>0,0; 24,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 12,55</t>
+          <t>2,27; 12,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 16,61</t>
+          <t>3,67; 16,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 18,29</t>
+          <t>6,64; 18,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,55; 11,66</t>
+          <t>4,76; 11,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,88; 17,8</t>
+          <t>7,95; 18,34</t>
         </is>
       </c>
     </row>
@@ -1455,27 +1456,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,48</t>
+          <t>2,07; 9,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 17,72</t>
+          <t>6,54; 17,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,37</t>
+          <t>1,83; 10,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 17,86</t>
+          <t>3,19; 17,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 16,87</t>
+          <t>2,87; 16,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,17 +1486,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,77</t>
+          <t>3,25; 9,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 14,72</t>
+          <t>6,26; 15,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,02</t>
+          <t>1,13; 6,79</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,12</t>
+          <t>5,79; 9,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>6,0; 9,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,82</t>
+          <t>9,35; 14,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,7</t>
+          <t>5,27; 12,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,74</t>
+          <t>5,53; 11,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,82</t>
+          <t>5,52; 11,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,75</t>
+          <t>6,07; 9,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,65</t>
+          <t>6,36; 9,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,71</t>
+          <t>8,84; 12,86</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la preocupación por sus efectos nocivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4736</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7367</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9026</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19158</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11154</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1852; 9611</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5171; 17568</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3217; 14966</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7074</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3513; 16168</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>937; 9278</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3071; 12613</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11264; 29871</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5874; 19326</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6189</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12411</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6189</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9191</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15483</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2110; 12134</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2820; 12212</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6523; 21403</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1824</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1020; 7924</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>968; 7543</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2953; 12561</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4084; 16134</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9097; 23972</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5520</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16906</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2791</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7543</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24449</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1895; 12392</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4712</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10737; 24828</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1795</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8006</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3729; 12468</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1884; 12526</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>917; 9869</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16738; 33194</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7506</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8566</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4389</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2820</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3706</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10201</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10326</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12272</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1992; 11211</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3080; 17013</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3784; 15159</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>999; 10267</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>897; 7637</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>933; 10145</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5555; 18146</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4946; 20405</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6590; 20899</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5354</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7367</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2054; 11151</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6132</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6381</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1800</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3271; 14397</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4222</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6922</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5031</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2629</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5305</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1838</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12227</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5982</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2892; 12516</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1998; 11187</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>776; 7484</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2087; 9563</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4788</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5680</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6919; 19648</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2012; 11996</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1650; 10342</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11626</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13640</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18620</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5449</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>7517</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14044</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19089</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26136</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6410; 19070</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7192; 22710</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11541; 28985</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7948</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2083; 11919</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3096; 13824</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8304; 23021</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12111; 29918</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16794; 38771</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6773</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14672</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5121</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>12916</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>19793</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2874; 12928</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>8519; 23027</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1873; 11025</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2302; 12930</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1919; 10984</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2185</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6853; 20607</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>12341; 30892</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1870; 11276</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>47577</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>72502</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>20568</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>31362</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>27462</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>68145</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>94611</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>99964</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>36167; 62083</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>48967; 81135</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>56644; 90187</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>13204; 31723</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>21379; 43687</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>18524; 38153</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>53133; 86402</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>76504; 117461</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>83249; 121094</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>